--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F12B76-EA93-47A3-831E-1AF84C0D137E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370C0220-9BCD-4EE8-B520-42DEC8B8A6B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="37">
   <si>
     <t>Question</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Attended meeting to discuss schedule, committed and pushed the minutes to repo</t>
+  </si>
+  <si>
+    <t>Edited schedule</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G16" sqref="G16"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -648,6 +651,9 @@
       <c r="G3" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="H3" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
@@ -661,6 +667,9 @@
       <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
@@ -672,6 +681,9 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -689,6 +701,9 @@
       <c r="G6" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="H6" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
@@ -702,6 +717,9 @@
       <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="H7" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
@@ -713,6 +731,9 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -730,6 +751,9 @@
       <c r="G9" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="H9" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
@@ -743,6 +767,9 @@
       <c r="G10" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="H10" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
@@ -754,6 +781,9 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -771,6 +801,9 @@
       <c r="G12" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="H12" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
@@ -784,6 +817,9 @@
       <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="H13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
@@ -795,6 +831,9 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -812,6 +851,9 @@
       <c r="G15" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="H15" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
@@ -825,8 +867,11 @@
       <c r="G16" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
@@ -838,64 +883,67 @@
       <c r="G17" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+      <c r="H17" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370C0220-9BCD-4EE8-B520-42DEC8B8A6B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1CC62A-4410-4AB4-B30C-11FE2A0EDE60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="37">
   <si>
     <t>Question</t>
   </si>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -241,6 +241,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -544,9 +547,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+      <selection pane="topRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -562,21 +565,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -596,8 +599,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -638,7 +641,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -654,9 +657,12 @@
       <c r="H3" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="I3" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -670,9 +676,12 @@
       <c r="H4" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="I4" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -686,9 +695,12 @@
       <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -704,9 +716,12 @@
       <c r="H6" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="I6" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -720,9 +735,12 @@
       <c r="H7" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="I7" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -736,9 +754,12 @@
       <c r="H8" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="I8" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -754,9 +775,12 @@
       <c r="H9" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="I9" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -770,9 +794,12 @@
       <c r="H10" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="I10" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -786,9 +813,12 @@
       <c r="H11" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="I11" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -804,9 +834,12 @@
       <c r="H12" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="I12" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -820,9 +853,12 @@
       <c r="H13" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="I13" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -836,9 +872,12 @@
       <c r="H14" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="I14" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -854,9 +893,12 @@
       <c r="H15" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="I15" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -870,9 +912,12 @@
       <c r="H16" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="I16" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -886,64 +931,67 @@
       <c r="H17" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+      <c r="I17" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>
@@ -4864,21 +4912,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -4898,8 +4946,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -4940,7 +4988,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4953,7 +5001,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -4964,7 +5012,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4975,7 +5023,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -4988,7 +5036,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -4999,7 +5047,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5010,7 +5058,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5023,7 +5071,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5034,7 +5082,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5045,7 +5093,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5058,7 +5106,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5069,7 +5117,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5080,7 +5128,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5093,7 +5141,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5104,7 +5152,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -9091,21 +9139,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -9125,8 +9173,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9167,7 +9215,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -9180,7 +9228,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -9191,7 +9239,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -9202,7 +9250,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -9215,7 +9263,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -9226,7 +9274,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -9237,7 +9285,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -9250,7 +9298,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -9261,7 +9309,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -9272,7 +9320,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -9285,7 +9333,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -9296,7 +9344,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -9307,7 +9355,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -9320,7 +9368,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -9331,7 +9379,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13318,21 +13366,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -13352,8 +13400,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -13394,7 +13442,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -13407,7 +13455,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -13418,7 +13466,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -13429,7 +13477,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -13442,7 +13490,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -13453,7 +13501,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -13464,7 +13512,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -13477,7 +13525,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -13488,7 +13536,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -13499,7 +13547,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -13512,7 +13560,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -13523,7 +13571,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -13534,7 +13582,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -13547,7 +13595,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -13558,7 +13606,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -17545,21 +17593,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -17579,8 +17627,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -17621,7 +17669,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -17634,7 +17682,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -17645,7 +17693,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -17656,7 +17704,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -17669,7 +17717,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -17680,7 +17728,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -17691,7 +17739,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -17704,7 +17752,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -17715,7 +17763,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -17726,7 +17774,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -17739,7 +17787,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -17750,7 +17798,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -17761,7 +17809,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -17774,7 +17822,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -17785,7 +17833,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -21772,21 +21820,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -21806,8 +21854,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -21848,7 +21896,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -21861,7 +21909,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -21872,7 +21920,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -21883,7 +21931,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -21896,7 +21944,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -21907,7 +21955,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -21918,7 +21966,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -21931,7 +21979,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -21942,7 +21990,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -21953,7 +22001,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -21966,7 +22014,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -21977,7 +22025,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -21988,7 +22036,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -22001,7 +22049,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -22012,7 +22060,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -25999,21 +26047,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -26033,8 +26081,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -26075,7 +26123,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -26088,7 +26136,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -26099,7 +26147,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -26110,7 +26158,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -26123,7 +26171,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -26134,7 +26182,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -26145,7 +26193,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -26158,7 +26206,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -26169,7 +26217,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -26180,7 +26228,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -26193,7 +26241,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -26204,7 +26252,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -26215,7 +26263,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -26228,7 +26276,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -26239,7 +26287,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -30226,21 +30274,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -30260,8 +30308,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -30302,7 +30350,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -30315,7 +30363,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -30326,7 +30374,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -30337,7 +30385,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -30350,7 +30398,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -30361,7 +30409,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -30372,7 +30420,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -30385,7 +30433,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -30396,7 +30444,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -30407,7 +30455,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -30420,7 +30468,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -30431,7 +30479,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -30442,7 +30490,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -30455,7 +30503,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -30466,7 +30514,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -34452,21 +34500,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -34486,8 +34534,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -34528,7 +34576,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -34541,7 +34589,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -34552,7 +34600,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -34563,7 +34611,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -34576,7 +34624,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -34587,7 +34635,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -34598,7 +34646,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -34611,7 +34659,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -34622,7 +34670,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -34633,7 +34681,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -34646,7 +34694,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -34657,7 +34705,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -34668,7 +34716,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -34681,7 +34729,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -34692,7 +34740,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1CC62A-4410-4AB4-B30C-11FE2A0EDE60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C232192-586F-4CEF-AE03-0ACBB8ED3D02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="41">
   <si>
     <t>Question</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>Edited schedule</t>
+  </si>
+  <si>
+    <t>Edited schedule, daily updates</t>
+  </si>
+  <si>
+    <t>Edit schedule, daily updates, team meeting</t>
+  </si>
+  <si>
+    <t>Team meeting, PP for login page</t>
+  </si>
+  <si>
+    <t>Team meeting, PP for bootstrap</t>
   </si>
 </sst>
 </file>
@@ -547,7 +559,7 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I5" sqref="I5"/>
     </sheetView>
@@ -4894,9 +4906,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4994,7 +5006,9 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -5005,7 +5019,9 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -5016,7 +5032,9 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -5029,7 +5047,9 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -5040,7 +5060,9 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5051,7 +5073,9 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -5064,7 +5088,9 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -5075,7 +5101,9 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -5086,7 +5114,9 @@
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -5099,7 +5129,9 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -5110,7 +5142,9 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -5121,7 +5155,9 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -5134,7 +5170,9 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -5145,7 +5183,9 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -5156,7 +5196,9 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C232192-586F-4CEF-AE03-0ACBB8ED3D02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E07B92-1B92-4A3E-9E99-4C0A3B10E0BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="45">
   <si>
     <t>Question</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>Team meeting, PP for bootstrap</t>
+  </si>
+  <si>
+    <t>Edited schedule, daily updates, team meeting</t>
+  </si>
+  <si>
+    <t>Edit schedule, daily updates</t>
+  </si>
+  <si>
+    <t>Coded login page</t>
+  </si>
+  <si>
+    <t>Created SQL database, coded classes and DAOs, created bootstrap.php</t>
   </si>
 </sst>
 </file>
@@ -4906,9 +4918,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <selection pane="topRight" activeCell="D15" sqref="D15:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5009,7 +5021,9 @@
       <c r="C3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -5022,7 +5036,9 @@
       <c r="C4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -5035,7 +5051,9 @@
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -5050,7 +5068,9 @@
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -5063,7 +5083,9 @@
       <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -5076,7 +5098,9 @@
       <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -5091,7 +5115,9 @@
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -5104,7 +5130,9 @@
       <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -5117,7 +5145,9 @@
       <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -5132,7 +5162,9 @@
       <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -5145,7 +5177,9 @@
       <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -5158,7 +5192,9 @@
       <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -5173,7 +5209,9 @@
       <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -5186,7 +5224,9 @@
       <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -5199,7 +5239,9 @@
       <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E07B92-1B92-4A3E-9E99-4C0A3B10E0BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88BBD81-1EA4-4572-9ACC-3AB2F7700877}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -164,6 +164,9 @@
   <si>
     <t>Created SQL database, coded classes and DAOs, created bootstrap.php</t>
   </si>
+  <si>
+    <t>Continue updating the schedule, daily updates</t>
+  </si>
 </sst>
 </file>
 
@@ -241,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -265,6 +268,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -571,9 +577,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -589,21 +595,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -623,8 +629,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -665,7 +671,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -686,7 +692,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -705,7 +711,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -724,7 +730,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -745,7 +751,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -764,7 +770,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -783,7 +789,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -804,7 +810,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -823,7 +829,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -842,7 +848,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -863,7 +869,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -882,7 +888,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -901,7 +907,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -922,7 +928,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -941,7 +947,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -4918,9 +4924,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15:D17"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4936,21 +4942,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -4970,8 +4976,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5012,7 +5018,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5024,12 +5030,14 @@
       <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5039,12 +5047,14 @@
       <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5054,12 +5064,14 @@
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5071,12 +5083,14 @@
       <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5086,12 +5100,14 @@
       <c r="D7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5101,12 +5117,14 @@
       <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5118,12 +5136,14 @@
       <c r="D9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5133,12 +5153,14 @@
       <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5148,12 +5170,14 @@
       <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5165,12 +5189,14 @@
       <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5180,12 +5206,14 @@
       <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5195,12 +5223,14 @@
       <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5212,12 +5242,14 @@
       <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5227,12 +5259,14 @@
       <c r="D16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5242,7 +5276,9 @@
       <c r="D17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
@@ -9223,21 +9259,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -9257,8 +9293,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9299,7 +9335,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -9312,7 +9348,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -9323,7 +9359,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -9334,7 +9370,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -9347,7 +9383,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -9358,7 +9394,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -9369,7 +9405,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -9382,7 +9418,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -9393,7 +9429,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -9404,7 +9440,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -9417,7 +9453,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -9428,7 +9464,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -9439,7 +9475,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -9452,7 +9488,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -9463,7 +9499,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13450,21 +13486,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -13484,8 +13520,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -13526,7 +13562,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -13539,7 +13575,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -13550,7 +13586,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -13561,7 +13597,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -13574,7 +13610,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -13585,7 +13621,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -13596,7 +13632,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -13609,7 +13645,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -13620,7 +13656,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -13631,7 +13667,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -13644,7 +13680,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -13655,7 +13691,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -13666,7 +13702,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -13679,7 +13715,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -13690,7 +13726,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -17677,21 +17713,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -17711,8 +17747,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -17753,7 +17789,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -17766,7 +17802,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -17777,7 +17813,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -17788,7 +17824,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -17801,7 +17837,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -17812,7 +17848,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -17823,7 +17859,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -17836,7 +17872,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -17847,7 +17883,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -17858,7 +17894,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -17871,7 +17907,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -17882,7 +17918,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -17893,7 +17929,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -17906,7 +17942,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -17917,7 +17953,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -21904,21 +21940,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -21938,8 +21974,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -21980,7 +22016,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -21993,7 +22029,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -22004,7 +22040,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -22015,7 +22051,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -22028,7 +22064,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -22039,7 +22075,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -22050,7 +22086,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -22063,7 +22099,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -22074,7 +22110,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -22085,7 +22121,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -22098,7 +22134,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -22109,7 +22145,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -22120,7 +22156,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -22133,7 +22169,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -22144,7 +22180,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -26131,21 +26167,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -26165,8 +26201,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -26207,7 +26243,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -26220,7 +26256,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -26231,7 +26267,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -26242,7 +26278,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -26255,7 +26291,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -26266,7 +26302,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -26277,7 +26313,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -26290,7 +26326,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -26301,7 +26337,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -26312,7 +26348,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -26325,7 +26361,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -26336,7 +26372,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -26347,7 +26383,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -26360,7 +26396,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -26371,7 +26407,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -30358,21 +30394,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -30392,8 +30428,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -30434,7 +30470,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -30447,7 +30483,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -30458,7 +30494,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -30469,7 +30505,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -30482,7 +30518,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -30493,7 +30529,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -30504,7 +30540,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -30517,7 +30553,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -30528,7 +30564,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -30539,7 +30575,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -30552,7 +30588,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -30563,7 +30599,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -30574,7 +30610,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -30587,7 +30623,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -30598,7 +30634,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -34584,21 +34620,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -34618,8 +34654,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -34660,7 +34696,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -34673,7 +34709,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -34684,7 +34720,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -34695,7 +34731,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -34708,7 +34744,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -34719,7 +34755,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -34730,7 +34766,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -34743,7 +34779,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -34754,7 +34790,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -34765,7 +34801,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -34778,7 +34814,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -34789,7 +34825,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -34800,7 +34836,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -34813,7 +34849,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -34824,7 +34860,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88BBD81-1EA4-4572-9ACC-3AB2F7700877}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104139E5-851D-4C65-AF0B-EF707BB4BC50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +268,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,21 +598,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -629,8 +632,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -671,7 +674,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -692,7 +695,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -711,7 +714,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -730,7 +733,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -751,7 +754,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -770,7 +773,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -789,7 +792,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -810,7 +813,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -829,7 +832,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -848,7 +851,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -869,7 +872,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -888,7 +891,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -907,7 +910,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -928,7 +931,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -947,7 +950,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -4926,7 +4929,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4942,21 +4945,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -4976,8 +4979,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5018,7 +5021,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5033,11 +5036,13 @@
       <c r="E3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5050,11 +5055,13 @@
       <c r="E4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5067,11 +5074,13 @@
       <c r="E5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5086,11 +5095,13 @@
       <c r="E6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5103,11 +5114,13 @@
       <c r="E7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5120,11 +5133,13 @@
       <c r="E8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5139,11 +5154,13 @@
       <c r="E9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5156,11 +5173,13 @@
       <c r="E10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5173,11 +5192,13 @@
       <c r="E11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5192,11 +5213,13 @@
       <c r="E12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5209,11 +5232,13 @@
       <c r="E13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5226,11 +5251,13 @@
       <c r="E14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5245,11 +5272,13 @@
       <c r="E15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5262,11 +5291,13 @@
       <c r="E16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5279,7 +5310,9 @@
       <c r="E17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
@@ -9259,21 +9292,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -9293,8 +9326,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9335,7 +9368,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -9348,7 +9381,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -9359,7 +9392,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -9370,7 +9403,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -9383,7 +9416,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -9394,7 +9427,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -9405,7 +9438,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -9418,7 +9451,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -9429,7 +9462,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -9440,7 +9473,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -9453,7 +9486,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -9464,7 +9497,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -9475,7 +9508,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -9488,7 +9521,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -9499,7 +9532,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13486,21 +13519,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -13520,8 +13553,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -13562,7 +13595,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -13575,7 +13608,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -13586,7 +13619,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -13597,7 +13630,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -13610,7 +13643,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -13621,7 +13654,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -13632,7 +13665,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -13645,7 +13678,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -13656,7 +13689,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -13667,7 +13700,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -13680,7 +13713,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -13691,7 +13724,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -13702,7 +13735,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -13715,7 +13748,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -13726,7 +13759,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -17713,21 +17746,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -17747,8 +17780,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -17789,7 +17822,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -17802,7 +17835,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -17813,7 +17846,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -17824,7 +17857,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -17837,7 +17870,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -17848,7 +17881,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -17859,7 +17892,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -17872,7 +17905,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -17883,7 +17916,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -17894,7 +17927,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -17907,7 +17940,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -17918,7 +17951,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -17929,7 +17962,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -17942,7 +17975,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -17953,7 +17986,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -21940,21 +21973,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -21974,8 +22007,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -22016,7 +22049,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -22029,7 +22062,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -22040,7 +22073,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -22051,7 +22084,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -22064,7 +22097,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -22075,7 +22108,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -22086,7 +22119,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -22099,7 +22132,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -22110,7 +22143,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -22121,7 +22154,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -22134,7 +22167,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -22145,7 +22178,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -22156,7 +22189,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -22169,7 +22202,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -22180,7 +22213,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -26167,21 +26200,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -26201,8 +26234,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -26243,7 +26276,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -26256,7 +26289,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -26267,7 +26300,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -26278,7 +26311,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -26291,7 +26324,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -26302,7 +26335,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -26313,7 +26346,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -26326,7 +26359,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -26337,7 +26370,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -26348,7 +26381,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -26361,7 +26394,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -26372,7 +26405,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -26383,7 +26416,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -26396,7 +26429,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -26407,7 +26440,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -30394,21 +30427,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -30428,8 +30461,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -30470,7 +30503,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -30483,7 +30516,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -30494,7 +30527,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -30505,7 +30538,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -30518,7 +30551,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -30529,7 +30562,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -30540,7 +30573,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -30553,7 +30586,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -30564,7 +30597,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -30575,7 +30608,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -30588,7 +30621,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -30599,7 +30632,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -30610,7 +30643,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -30623,7 +30656,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -30634,7 +30667,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -34620,21 +34653,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -34654,8 +34687,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -34696,7 +34729,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -34709,7 +34742,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -34720,7 +34753,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -34731,7 +34764,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -34744,7 +34777,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -34755,7 +34788,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -34766,7 +34799,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -34779,7 +34812,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -34790,7 +34823,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -34801,7 +34834,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -34814,7 +34847,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -34825,7 +34858,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -34836,7 +34869,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -34849,7 +34882,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -34860,7 +34893,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104139E5-851D-4C65-AF0B-EF707BB4BC50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED447BE-B5E7-44B8-8E6B-EFA90D037877}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +268,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -598,21 +601,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -632,8 +635,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -674,7 +677,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -695,7 +698,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -714,7 +717,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -733,7 +736,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -754,7 +757,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -773,7 +776,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -792,7 +795,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -813,7 +816,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -832,7 +835,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -851,7 +854,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -872,7 +875,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -891,7 +894,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -910,7 +913,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -931,7 +934,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -950,7 +953,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -4929,7 +4932,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4945,21 +4948,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -4979,8 +4982,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5021,7 +5024,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5039,10 +5042,12 @@
       <c r="F3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5058,10 +5063,12 @@
       <c r="F4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="14" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5077,10 +5084,12 @@
       <c r="F5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5098,10 +5107,12 @@
       <c r="F6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5117,10 +5128,12 @@
       <c r="F7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5136,10 +5149,12 @@
       <c r="F8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5157,10 +5172,12 @@
       <c r="F9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5176,10 +5193,12 @@
       <c r="F10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5195,10 +5214,12 @@
       <c r="F11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5216,10 +5237,12 @@
       <c r="F12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5235,10 +5258,12 @@
       <c r="F13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5254,10 +5279,12 @@
       <c r="F14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5275,10 +5302,12 @@
       <c r="F15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5294,10 +5323,12 @@
       <c r="F16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5313,7 +5344,9 @@
       <c r="F17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
@@ -9292,21 +9325,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -9326,8 +9359,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9368,7 +9401,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -9381,7 +9414,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -9392,7 +9425,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -9403,7 +9436,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -9416,7 +9449,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -9427,7 +9460,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -9438,7 +9471,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -9451,7 +9484,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -9462,7 +9495,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -9473,7 +9506,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -9486,7 +9519,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -9497,7 +9530,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -9508,7 +9541,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -9521,7 +9554,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -9532,7 +9565,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13519,21 +13552,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -13553,8 +13586,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -13595,7 +13628,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -13608,7 +13641,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -13619,7 +13652,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -13630,7 +13663,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -13643,7 +13676,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -13654,7 +13687,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -13665,7 +13698,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -13678,7 +13711,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -13689,7 +13722,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -13700,7 +13733,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -13713,7 +13746,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -13724,7 +13757,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -13735,7 +13768,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -13748,7 +13781,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -13759,7 +13792,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -17746,21 +17779,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -17780,8 +17813,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -17822,7 +17855,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -17835,7 +17868,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -17846,7 +17879,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -17857,7 +17890,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -17870,7 +17903,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -17881,7 +17914,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -17892,7 +17925,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -17905,7 +17938,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -17916,7 +17949,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -17927,7 +17960,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -17940,7 +17973,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -17951,7 +17984,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -17962,7 +17995,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -17975,7 +18008,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -17986,7 +18019,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -21973,21 +22006,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -22007,8 +22040,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -22049,7 +22082,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -22062,7 +22095,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -22073,7 +22106,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -22084,7 +22117,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -22097,7 +22130,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -22108,7 +22141,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -22119,7 +22152,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -22132,7 +22165,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -22143,7 +22176,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -22154,7 +22187,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -22167,7 +22200,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -22178,7 +22211,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -22189,7 +22222,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -22202,7 +22235,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -22213,7 +22246,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -26200,21 +26233,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -26234,8 +26267,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -26276,7 +26309,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -26289,7 +26322,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -26300,7 +26333,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -26311,7 +26344,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -26324,7 +26357,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -26335,7 +26368,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -26346,7 +26379,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -26359,7 +26392,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -26370,7 +26403,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -26381,7 +26414,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -26394,7 +26427,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -26405,7 +26438,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -26416,7 +26449,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -26429,7 +26462,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -26440,7 +26473,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -30427,21 +30460,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -30461,8 +30494,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -30503,7 +30536,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -30516,7 +30549,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -30527,7 +30560,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -30538,7 +30571,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -30551,7 +30584,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -30562,7 +30595,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -30573,7 +30606,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -30586,7 +30619,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -30597,7 +30630,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -30608,7 +30641,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -30621,7 +30654,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -30632,7 +30665,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -30643,7 +30676,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -30656,7 +30689,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -30667,7 +30700,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -34653,21 +34686,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -34687,8 +34720,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -34729,7 +34762,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -34742,7 +34775,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -34753,7 +34786,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -34764,7 +34797,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -34777,7 +34810,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -34788,7 +34821,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -34799,7 +34832,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -34812,7 +34845,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -34823,7 +34856,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -34834,7 +34867,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -34847,7 +34880,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -34858,7 +34891,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -34869,7 +34902,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -34882,7 +34915,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -34893,7 +34926,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED447BE-B5E7-44B8-8E6B-EFA90D037877}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03325638-C9E6-4B20-A2DA-AE354AA90C37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +268,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -601,21 +604,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -635,8 +638,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -677,7 +680,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -698,7 +701,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -717,7 +720,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -736,7 +739,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -757,7 +760,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -776,7 +779,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -795,7 +798,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -816,7 +819,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -835,7 +838,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -854,7 +857,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -875,7 +878,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -894,7 +897,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -913,7 +916,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -934,7 +937,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -953,7 +956,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -4931,8 +4934,8 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3:G17"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4948,21 +4951,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -4982,8 +4985,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5024,7 +5027,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5045,9 +5048,12 @@
       <c r="G3" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="H3" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5066,9 +5072,12 @@
       <c r="G4" s="14" t="s">
         <v>45</v>
       </c>
+      <c r="H4" s="15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5087,9 +5096,12 @@
       <c r="G5" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="H5" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5110,9 +5122,12 @@
       <c r="G6" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="H6" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5131,9 +5146,12 @@
       <c r="G7" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="H7" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5152,9 +5170,12 @@
       <c r="G8" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="H8" s="15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5175,9 +5196,12 @@
       <c r="G9" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="H9" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5196,9 +5220,12 @@
       <c r="G10" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="H10" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5217,9 +5244,12 @@
       <c r="G11" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="H11" s="15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5240,9 +5270,12 @@
       <c r="G12" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="H12" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5261,9 +5294,12 @@
       <c r="G13" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="H13" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5282,9 +5318,12 @@
       <c r="G14" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="H14" s="15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5305,9 +5344,12 @@
       <c r="G15" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="H15" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5326,9 +5368,12 @@
       <c r="G16" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="H16" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5347,64 +5392,67 @@
       <c r="G17" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+      <c r="H17" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>
@@ -9325,21 +9373,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -9359,8 +9407,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9401,7 +9449,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -9414,7 +9462,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -9425,7 +9473,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -9436,7 +9484,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -9449,7 +9497,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -9460,7 +9508,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -9471,7 +9519,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -9484,7 +9532,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -9495,7 +9543,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -9506,7 +9554,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -9519,7 +9567,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -9530,7 +9578,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -9541,7 +9589,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -9554,7 +9602,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -9565,7 +9613,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13552,21 +13600,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -13586,8 +13634,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -13628,7 +13676,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -13641,7 +13689,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -13652,7 +13700,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -13663,7 +13711,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -13676,7 +13724,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -13687,7 +13735,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -13698,7 +13746,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -13711,7 +13759,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -13722,7 +13770,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -13733,7 +13781,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -13746,7 +13794,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -13757,7 +13805,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -13768,7 +13816,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -13781,7 +13829,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -13792,7 +13840,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -17779,21 +17827,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -17813,8 +17861,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -17855,7 +17903,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -17868,7 +17916,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -17879,7 +17927,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -17890,7 +17938,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -17903,7 +17951,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -17914,7 +17962,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -17925,7 +17973,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -17938,7 +17986,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -17949,7 +17997,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -17960,7 +18008,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -17973,7 +18021,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -17984,7 +18032,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -17995,7 +18043,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -18008,7 +18056,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -18019,7 +18067,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -22006,21 +22054,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -22040,8 +22088,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -22082,7 +22130,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -22095,7 +22143,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -22106,7 +22154,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -22117,7 +22165,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -22130,7 +22178,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -22141,7 +22189,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -22152,7 +22200,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -22165,7 +22213,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -22176,7 +22224,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -22187,7 +22235,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -22200,7 +22248,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -22211,7 +22259,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -22222,7 +22270,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -22235,7 +22283,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -22246,7 +22294,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -26233,21 +26281,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -26267,8 +26315,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -26309,7 +26357,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -26322,7 +26370,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -26333,7 +26381,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -26344,7 +26392,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -26357,7 +26405,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -26368,7 +26416,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -26379,7 +26427,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -26392,7 +26440,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -26403,7 +26451,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -26414,7 +26462,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -26427,7 +26475,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -26438,7 +26486,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -26449,7 +26497,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -26462,7 +26510,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -26473,7 +26521,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -30460,21 +30508,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -30494,8 +30542,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -30536,7 +30584,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -30549,7 +30597,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -30560,7 +30608,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -30571,7 +30619,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -30584,7 +30632,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -30595,7 +30643,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -30606,7 +30654,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -30619,7 +30667,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -30630,7 +30678,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -30641,7 +30689,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -30654,7 +30702,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -30665,7 +30713,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -30676,7 +30724,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -30689,7 +30737,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -30700,7 +30748,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -34686,21 +34734,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -34720,8 +34768,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -34762,7 +34810,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -34775,7 +34823,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -34786,7 +34834,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -34797,7 +34845,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -34810,7 +34858,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -34821,7 +34869,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -34832,7 +34880,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -34845,7 +34893,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -34856,7 +34904,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -34867,7 +34915,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -34880,7 +34928,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -34891,7 +34939,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -34902,7 +34950,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -34915,7 +34963,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -34926,7 +34974,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03325638-C9E6-4B20-A2DA-AE354AA90C37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3A4070-7CE3-41A8-A348-E2932AF510B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="46">
   <si>
     <t>Question</t>
   </si>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +268,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -604,21 +607,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -638,8 +641,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -680,7 +683,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -701,7 +704,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -720,7 +723,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -739,7 +742,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -760,7 +763,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -779,7 +782,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -798,7 +801,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -819,7 +822,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -838,7 +841,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -857,7 +860,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -878,7 +881,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -897,7 +900,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -916,7 +919,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -937,7 +940,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -956,7 +959,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -4935,7 +4938,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4951,21 +4954,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -4985,8 +4988,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5027,7 +5030,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5051,9 +5054,12 @@
       <c r="H3" s="15" t="s">
         <v>37</v>
       </c>
+      <c r="I3" s="16" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5075,9 +5081,12 @@
       <c r="H4" s="15" t="s">
         <v>45</v>
       </c>
+      <c r="I4" s="16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5099,9 +5108,12 @@
       <c r="H5" s="15" t="s">
         <v>28</v>
       </c>
+      <c r="I5" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5125,9 +5137,12 @@
       <c r="H6" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="I6" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5149,9 +5164,12 @@
       <c r="H7" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="I7" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5173,9 +5191,12 @@
       <c r="H8" s="15" t="s">
         <v>32</v>
       </c>
+      <c r="I8" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5199,9 +5220,12 @@
       <c r="H9" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="I9" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5223,9 +5247,12 @@
       <c r="H10" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="I10" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5247,9 +5274,12 @@
       <c r="H11" s="15" t="s">
         <v>32</v>
       </c>
+      <c r="I11" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5273,9 +5303,12 @@
       <c r="H12" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="I12" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5297,9 +5330,12 @@
       <c r="H13" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="I13" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5321,9 +5357,12 @@
       <c r="H14" s="15" t="s">
         <v>32</v>
       </c>
+      <c r="I14" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5347,9 +5386,12 @@
       <c r="H15" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="I15" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5371,9 +5413,12 @@
       <c r="H16" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="I16" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5395,64 +5440,67 @@
       <c r="H17" s="15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+      <c r="I17" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="15.65" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15.65" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>
@@ -9373,21 +9421,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -9407,8 +9455,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9449,7 +9497,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -9462,7 +9510,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -9473,7 +9521,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -9484,7 +9532,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -9497,7 +9545,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -9508,7 +9556,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -9519,7 +9567,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -9532,7 +9580,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -9543,7 +9591,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -9554,7 +9602,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -9567,7 +9615,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -9578,7 +9626,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -9589,7 +9637,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -9602,7 +9650,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -9613,7 +9661,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -13600,21 +13648,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -13634,8 +13682,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -13676,7 +13724,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -13689,7 +13737,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -13700,7 +13748,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -13711,7 +13759,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -13724,7 +13772,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -13735,7 +13783,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -13746,7 +13794,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -13759,7 +13807,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -13770,7 +13818,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -13781,7 +13829,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -13794,7 +13842,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -13805,7 +13853,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -13816,7 +13864,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -13829,7 +13877,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -13840,7 +13888,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -17827,21 +17875,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -17861,8 +17909,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -17903,7 +17951,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -17916,7 +17964,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -17927,7 +17975,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -17938,7 +17986,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -17951,7 +17999,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -17962,7 +18010,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -17973,7 +18021,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -17986,7 +18034,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -17997,7 +18045,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -18008,7 +18056,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -18021,7 +18069,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -18032,7 +18080,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -18043,7 +18091,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -18056,7 +18104,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -18067,7 +18115,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -22054,21 +22102,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -22088,8 +22136,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -22130,7 +22178,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -22143,7 +22191,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -22154,7 +22202,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -22165,7 +22213,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -22178,7 +22226,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -22189,7 +22237,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -22200,7 +22248,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -22213,7 +22261,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -22224,7 +22272,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -22235,7 +22283,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -22248,7 +22296,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -22259,7 +22307,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -22270,7 +22318,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -22283,7 +22331,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -22294,7 +22342,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -26281,21 +26329,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -26315,8 +26363,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -26357,7 +26405,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -26370,7 +26418,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -26381,7 +26429,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -26392,7 +26440,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -26405,7 +26453,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -26416,7 +26464,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -26427,7 +26475,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -26440,7 +26488,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -26451,7 +26499,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -26462,7 +26510,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -26475,7 +26523,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -26486,7 +26534,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -26497,7 +26545,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -26510,7 +26558,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -26521,7 +26569,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -30508,21 +30556,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -30542,8 +30590,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -30584,7 +30632,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -30597,7 +30645,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -30608,7 +30656,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -30619,7 +30667,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -30632,7 +30680,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -30643,7 +30691,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -30654,7 +30702,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -30667,7 +30715,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -30678,7 +30726,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -30689,7 +30737,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -30702,7 +30750,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -30713,7 +30761,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -30724,7 +30772,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -30737,7 +30785,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -30748,7 +30796,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -34734,21 +34782,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.649999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -34768,8 +34816,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.65" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -34810,7 +34858,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -34823,7 +34871,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -34834,7 +34882,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -34845,7 +34893,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -34858,7 +34906,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -34869,7 +34917,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -34880,7 +34928,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -34893,7 +34941,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -34904,7 +34952,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -34915,7 +34963,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -34928,7 +34976,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -34939,7 +34987,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -34950,7 +34998,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -34963,7 +35011,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -34974,7 +35022,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3A4070-7CE3-41A8-A348-E2932AF510B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA388BB-FF14-405E-9251-F17EC137FBEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="51">
   <si>
     <t>Question</t>
   </si>
@@ -166,6 +166,21 @@
   </si>
   <si>
     <t>Continue updating the schedule, daily updates</t>
+  </si>
+  <si>
+    <t>Prepare PM Review slides, Update schedule, daily updates</t>
+  </si>
+  <si>
+    <t>Complete bootstrap.php validations</t>
+  </si>
+  <si>
+    <t>Continue and finish coding bootstrap.php and bootstrapping validations</t>
+  </si>
+  <si>
+    <t>Creating bidding summary table for studen'ts landing page, creating admin's page for bootstrapping</t>
+  </si>
+  <si>
+    <t>Update student login landing page, coding bootstrap form for admin page</t>
   </si>
 </sst>
 </file>
@@ -4936,8 +4951,8 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -9403,9 +9418,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9503,7 +9518,9 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -9514,7 +9531,9 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -9525,7 +9544,9 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -9538,7 +9559,9 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -9549,7 +9572,9 @@
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -9560,7 +9585,9 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -9573,7 +9600,9 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -9584,7 +9613,9 @@
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -9595,7 +9626,9 @@
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -9608,7 +9641,9 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -9619,7 +9654,9 @@
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -9630,7 +9667,9 @@
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -9643,7 +9682,9 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -9654,7 +9695,9 @@
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -9665,7 +9708,9 @@
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA388BB-FF14-405E-9251-F17EC137FBEF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9F457B-AC2B-44D7-9FF6-86C7FD405F3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="57">
   <si>
     <t>Question</t>
   </si>
@@ -181,6 +181,24 @@
   </si>
   <si>
     <t>Update student login landing page, coding bootstrap form for admin page</t>
+  </si>
+  <si>
+    <t>Team meeting, write test cases for login, add to bug metrics</t>
+  </si>
+  <si>
+    <t>Finished all bootstrap validations up to course_completed</t>
+  </si>
+  <si>
+    <t>Team meeting, test login functionality, debugging</t>
+  </si>
+  <si>
+    <t>Created bidding results summary table for student home page, started on 'plan bid' page</t>
+  </si>
+  <si>
+    <t>Created bidding results summary table for student home page, began coding 'plan bid' page</t>
+  </si>
+  <si>
+    <t>Team meeting, update schedule until end of project, daily updates</t>
   </si>
 </sst>
 </file>
@@ -604,9 +622,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3:I17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9418,9 +9436,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9521,7 +9539,9 @@
       <c r="C3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -9534,7 +9554,9 @@
       <c r="C4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -9547,7 +9569,9 @@
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -9562,7 +9586,9 @@
       <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -9575,7 +9601,9 @@
       <c r="C7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -9588,7 +9616,9 @@
       <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -9603,7 +9633,9 @@
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -9616,7 +9648,9 @@
       <c r="C10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -9629,7 +9663,9 @@
       <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -9644,7 +9680,9 @@
       <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -9657,7 +9695,9 @@
       <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -9670,7 +9710,9 @@
       <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -9685,7 +9727,9 @@
       <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -9698,7 +9742,9 @@
       <c r="C16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -9711,7 +9757,9 @@
       <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9F457B-AC2B-44D7-9FF6-86C7FD405F3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6436E1F1-DB08-48E0-920F-05B986E65F5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="64">
   <si>
     <t>Question</t>
   </si>
@@ -199,6 +199,27 @@
   </si>
   <si>
     <t>Team meeting, update schedule until end of project, daily updates</t>
+  </si>
+  <si>
+    <t>Overhauled the schedule and planned until the end of the project, held team meeting to ensure everyone is on the same page. Daily update</t>
+  </si>
+  <si>
+    <t>Simplify tasks on schedule as there is too much detail. Will draw critical path and prepare slides for PM review</t>
+  </si>
+  <si>
+    <t>Attended the team meeting, helped to write the login test cases and updated the bug metrics</t>
+  </si>
+  <si>
+    <t>I went for the team meeting, ran the test cases to test login and debugged the code.</t>
+  </si>
+  <si>
+    <t>Implement more methods in our DAOs and code the login functionality for the admin.</t>
+  </si>
+  <si>
+    <t>Add more DAO functions and add the login page for admin.</t>
+  </si>
+  <si>
+    <t>Attended team meeting. Clarify project requirements I wasn't sure about. Also helped to test login and debug the code.</t>
   </si>
 </sst>
 </file>
@@ -9436,9 +9457,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9542,7 +9563,9 @@
       <c r="D3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
@@ -9557,7 +9580,9 @@
       <c r="D4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
@@ -9572,7 +9597,9 @@
       <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -9589,7 +9616,9 @@
       <c r="D6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
@@ -9604,7 +9633,9 @@
       <c r="D7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
@@ -9619,7 +9650,9 @@
       <c r="D8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
@@ -9636,7 +9669,9 @@
       <c r="D9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
@@ -9651,7 +9686,9 @@
       <c r="D10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
@@ -9666,7 +9703,9 @@
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
@@ -9683,7 +9722,9 @@
       <c r="D12" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
@@ -9698,7 +9739,9 @@
       <c r="D13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
@@ -9713,7 +9756,9 @@
       <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
@@ -9730,7 +9775,9 @@
       <c r="D15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
@@ -9745,7 +9792,9 @@
       <c r="D16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
@@ -9760,7 +9809,9 @@
       <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffi\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6436E1F1-DB08-48E0-920F-05B986E65F5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5713782A-4809-4768-B39D-87652CD31D0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="19536" windowHeight="10473" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,20 @@
     <sheet name="Week 12" sheetId="11" r:id="rId8"/>
     <sheet name="Week 13" sheetId="1" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="72">
   <si>
     <t>Question</t>
   </si>
@@ -221,32 +229,39 @@
   <si>
     <t>Attended team meeting. Clarify project requirements I wasn't sure about. Also helped to test login and debug the code.</t>
   </si>
+  <si>
+    <t>Finalised schedule, worked on slides</t>
+  </si>
+  <si>
+    <t>Deploy app, submit slides, PM Review</t>
+  </si>
+  <si>
+    <t>I haven’t tried deploying the app before, so hopefully there are no delays</t>
+  </si>
+  <si>
+    <t>Added more DAO functions and implemented login for admin</t>
+  </si>
+  <si>
+    <t>I'll help with the slides and attend the PM Review</t>
+  </si>
+  <si>
+    <t>Updated the DAOs and finished login for the admin</t>
+  </si>
+  <si>
+    <t>I will draw the critical paths for the slides, PM review</t>
+  </si>
+  <si>
+    <t>PM Review</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -262,6 +277,33 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -298,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -357,6 +399,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9457,9 +9502,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9566,7 +9611,9 @@
       <c r="E3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.1" customHeight="1" x14ac:dyDescent="0.35">
@@ -9583,7 +9630,9 @@
       <c r="E4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
@@ -9600,7 +9649,9 @@
       <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.35" customHeight="1" x14ac:dyDescent="0.35">
@@ -9619,7 +9670,9 @@
       <c r="E6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
@@ -9636,7 +9689,9 @@
       <c r="E7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
@@ -9653,7 +9708,9 @@
       <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
@@ -9672,7 +9729,9 @@
       <c r="E9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
@@ -9689,7 +9748,9 @@
       <c r="E10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
@@ -9706,7 +9767,9 @@
       <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
@@ -9725,7 +9788,9 @@
       <c r="E12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
@@ -9742,7 +9807,9 @@
       <c r="E13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
@@ -9759,7 +9826,9 @@
       <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.45" customHeight="1" x14ac:dyDescent="0.35">
@@ -9778,7 +9847,9 @@
       <c r="E15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
@@ -9795,7 +9866,9 @@
       <c r="E16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.7" customHeight="1" x14ac:dyDescent="0.35">
@@ -9812,7 +9885,9 @@
       <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.65" x14ac:dyDescent="0.35">

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0D61C4-BD2B-4354-82D5-42E8960B727F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4342484-B1AF-4F8D-B107-E801C9BDEF55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="81">
   <si>
     <t>Question</t>
   </si>
@@ -268,6 +268,18 @@
   <si>
     <t>Drew critical paths for the slides, attended PM Review</t>
   </si>
+  <si>
+    <t>Helped with adjusting schedule</t>
+  </si>
+  <si>
+    <t>Adjusting schedule, daily updates</t>
+  </si>
+  <si>
+    <t>Help with scheduling</t>
+  </si>
+  <si>
+    <t>Revisit schedule</t>
+  </si>
 </sst>
 </file>
 
@@ -323,8 +335,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -361,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -406,6 +417,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -714,7 +728,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="topRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -730,21 +744,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -764,8 +778,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -806,7 +820,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -827,7 +841,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -846,7 +860,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -865,7 +879,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -886,7 +900,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -905,7 +919,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -924,7 +938,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -945,7 +959,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -964,7 +978,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -983,7 +997,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1004,7 +1018,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +1037,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1042,7 +1056,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1063,7 +1077,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1082,7 +1096,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5061,7 +5075,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J8" sqref="J8"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5077,21 +5091,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5111,8 +5125,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5153,7 +5167,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5182,7 +5196,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5209,7 +5223,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5236,7 +5250,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5265,7 +5279,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5292,7 +5306,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5319,7 +5333,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5348,7 +5362,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5375,7 +5389,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5402,7 +5416,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5431,7 +5445,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5458,7 +5472,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5485,7 +5499,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5514,7 +5528,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5541,7 +5555,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -9526,9 +9540,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9544,21 +9558,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -9578,8 +9592,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9620,387 +9634,432 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="25" t="s">
         <v>73</v>
       </c>
+      <c r="H3" s="17" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="25" t="s">
         <v>72</v>
       </c>
+      <c r="H4" s="17" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="25" t="s">
         <v>28</v>
       </c>
+      <c r="H5" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="17" t="s">
         <v>75</v>
       </c>
+      <c r="H6" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="25" t="s">
         <v>62</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="17" t="s">
         <v>30</v>
       </c>
+      <c r="H7" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="25" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="17" t="s">
         <v>32</v>
       </c>
+      <c r="H8" s="18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="25" t="s">
         <v>74</v>
       </c>
+      <c r="H9" s="17" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="25" t="s">
         <v>72</v>
       </c>
+      <c r="H10" s="17" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="25" t="s">
         <v>28</v>
       </c>
+      <c r="H11" s="17" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="17" t="s">
         <v>76</v>
       </c>
+      <c r="H12" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="17" t="s">
         <v>30</v>
       </c>
+      <c r="H13" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="17" t="s">
         <v>32</v>
       </c>
+      <c r="H14" s="18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="17" t="s">
         <v>75</v>
       </c>
+      <c r="H15" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="H16" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="H17" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>
@@ -13921,21 +13980,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -13955,8 +14014,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -13997,7 +14056,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -14010,7 +14069,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -14021,7 +14080,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -14032,7 +14091,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -14045,7 +14104,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -14056,7 +14115,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -14067,7 +14126,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -14080,7 +14139,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -14091,7 +14150,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -14102,7 +14161,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -14115,7 +14174,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -14126,7 +14185,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -14137,7 +14196,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -14150,7 +14209,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -14161,7 +14220,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -18148,21 +18207,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -18182,8 +18241,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -18224,7 +18283,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -18237,7 +18296,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -18248,7 +18307,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -18259,7 +18318,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -18272,7 +18331,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -18283,7 +18342,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -18294,7 +18353,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -18307,7 +18366,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -18318,7 +18377,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -18329,7 +18388,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -18342,7 +18401,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -18353,7 +18412,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -18364,7 +18423,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -18377,7 +18436,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -18388,7 +18447,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -22375,21 +22434,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -22409,8 +22468,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -22451,7 +22510,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -22464,7 +22523,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -22475,7 +22534,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -22486,7 +22545,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -22499,7 +22558,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -22510,7 +22569,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -22521,7 +22580,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -22534,7 +22593,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -22545,7 +22604,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -22556,7 +22615,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -22569,7 +22628,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -22580,7 +22639,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -22591,7 +22650,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -22604,7 +22663,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -22615,7 +22674,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -26602,21 +26661,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -26636,8 +26695,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -26678,7 +26737,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -26691,7 +26750,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -26702,7 +26761,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -26713,7 +26772,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -26726,7 +26785,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -26737,7 +26796,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -26748,7 +26807,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -26761,7 +26820,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -26772,7 +26831,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -26783,7 +26842,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -26796,7 +26855,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -26807,7 +26866,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -26818,7 +26877,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -26831,7 +26890,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -26842,7 +26901,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -30829,21 +30888,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -30863,8 +30922,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -30905,7 +30964,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -30918,7 +30977,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -30929,7 +30988,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -30940,7 +30999,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -30953,7 +31012,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -30964,7 +31023,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -30975,7 +31034,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -30988,7 +31047,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -30999,7 +31058,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -31010,7 +31069,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -31023,7 +31082,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -31034,7 +31093,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -31045,7 +31104,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -31058,7 +31117,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -31069,7 +31128,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -35055,21 +35114,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -35089,8 +35148,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -35131,7 +35190,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -35144,7 +35203,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -35155,7 +35214,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -35166,7 +35225,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -35179,7 +35238,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -35190,7 +35249,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -35201,7 +35260,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -35214,7 +35273,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -35225,7 +35284,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -35236,7 +35295,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -35249,7 +35308,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -35260,7 +35319,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -35271,7 +35330,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -35284,7 +35343,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -35295,7 +35354,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4342484-B1AF-4F8D-B107-E801C9BDEF55}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D19758-431F-4F9A-96EB-470489DDFF2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="84">
   <si>
     <t>Question</t>
   </si>
@@ -275,10 +275,19 @@
     <t>Adjusting schedule, daily updates</t>
   </si>
   <si>
-    <t>Help with scheduling</t>
+    <t>Help with scheduling, fix admin login</t>
   </si>
   <si>
-    <t>Revisit schedule</t>
+    <t>Fix admin login</t>
+  </si>
+  <si>
+    <t>Fixed admin login</t>
+  </si>
+  <si>
+    <t>Helped with scheduling, fixed admin login</t>
+  </si>
+  <si>
+    <t>Revisit schedule, daily updates</t>
   </si>
 </sst>
 </file>
@@ -372,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -422,6 +431,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -437,9 +452,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,9 +738,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -744,21 +756,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -778,8 +790,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -820,7 +832,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -841,7 +853,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -860,7 +872,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -879,7 +891,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -900,7 +912,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -919,7 +931,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -938,7 +950,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -959,7 +971,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -978,7 +990,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -997,7 +1009,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1018,7 +1030,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1049,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1056,7 +1068,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1077,7 +1089,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1108,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -5075,7 +5087,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6:F8"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5091,21 +5103,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5125,8 +5137,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5167,7 +5179,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5196,7 +5208,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -5223,7 +5235,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5250,7 +5262,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5279,7 +5291,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5306,7 +5318,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -5333,7 +5345,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5362,7 +5374,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5389,7 +5401,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5416,7 +5428,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5445,7 +5457,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -5472,7 +5484,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -5499,7 +5511,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5528,7 +5540,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -5555,7 +5567,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -9541,8 +9553,8 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9558,21 +9570,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -9592,8 +9604,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9634,96 +9646,105 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="20" t="s">
         <v>73</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>77</v>
       </c>
+      <c r="I3" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>79</v>
       </c>
+      <c r="I4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="20" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>28</v>
       </c>
+      <c r="I5" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="20" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="17" t="s">
@@ -9732,19 +9753,22 @@
       <c r="H6" s="18" t="s">
         <v>30</v>
       </c>
+      <c r="I6" s="19" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="20" t="s">
         <v>62</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -9756,122 +9780,137 @@
       <c r="H7" s="18" t="s">
         <v>30</v>
       </c>
+      <c r="I7" s="19" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>32</v>
+      <c r="G8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="20" t="s">
         <v>74</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>78</v>
       </c>
+      <c r="I9" s="17" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="20" t="s">
         <v>72</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="20" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>28</v>
       </c>
+      <c r="I11" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="17" t="s">
@@ -9880,72 +9919,81 @@
       <c r="H12" s="18" t="s">
         <v>30</v>
       </c>
+      <c r="I12" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="20" t="s">
         <v>70</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="17" t="s">
@@ -9954,22 +10002,25 @@
       <c r="H15" s="18" t="s">
         <v>30</v>
       </c>
+      <c r="I15" s="19" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="20" t="s">
         <v>71</v>
       </c>
       <c r="G16" s="17" t="s">
@@ -9978,88 +10029,94 @@
       <c r="H16" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="I16" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="G17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>
@@ -13980,21 +14037,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -14014,8 +14071,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -14056,7 +14113,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -14069,7 +14126,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -14080,7 +14137,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -14091,7 +14148,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -14104,7 +14161,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -14115,7 +14172,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -14126,7 +14183,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -14139,7 +14196,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -14150,7 +14207,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -14161,7 +14218,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -14174,7 +14231,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -14185,7 +14242,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -14196,7 +14253,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -14209,7 +14266,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -14220,7 +14277,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -18207,21 +18264,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -18241,8 +18298,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -18283,7 +18340,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -18296,7 +18353,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -18307,7 +18364,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -18318,7 +18375,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -18331,7 +18388,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -18342,7 +18399,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -18353,7 +18410,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -18366,7 +18423,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -18377,7 +18434,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -18388,7 +18445,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -18401,7 +18458,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -18412,7 +18469,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -18423,7 +18480,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -18436,7 +18493,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -18447,7 +18504,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -22434,21 +22491,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -22468,8 +22525,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -22510,7 +22567,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -22523,7 +22580,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -22534,7 +22591,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -22545,7 +22602,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -22558,7 +22615,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -22569,7 +22626,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -22580,7 +22637,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -22593,7 +22650,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -22604,7 +22661,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -22615,7 +22672,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -22628,7 +22685,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -22639,7 +22696,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -22650,7 +22707,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -22663,7 +22720,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -22674,7 +22731,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -26661,21 +26718,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -26695,8 +26752,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -26737,7 +26794,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -26750,7 +26807,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -26761,7 +26818,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -26772,7 +26829,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -26785,7 +26842,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -26796,7 +26853,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -26807,7 +26864,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -26820,7 +26877,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -26831,7 +26888,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -26842,7 +26899,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -26855,7 +26912,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -26866,7 +26923,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -26877,7 +26934,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -26890,7 +26947,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -26901,7 +26958,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -30888,21 +30945,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -30922,8 +30979,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -30964,7 +31021,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -30977,7 +31034,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -30988,7 +31045,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -30999,7 +31056,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -31012,7 +31069,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -31023,7 +31080,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -31034,7 +31091,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -31047,7 +31104,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -31058,7 +31115,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -31069,7 +31126,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -31082,7 +31139,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -31093,7 +31150,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -31104,7 +31161,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -31117,7 +31174,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -31128,7 +31185,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -35114,21 +35171,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -35148,8 +35205,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -35190,7 +35247,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -35203,7 +35260,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -35214,7 +35271,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -35225,7 +35282,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -35238,7 +35295,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -35249,7 +35306,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -35260,7 +35317,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -35273,7 +35330,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -35284,7 +35341,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -35295,7 +35352,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -35308,7 +35365,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -35319,7 +35376,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -35330,7 +35387,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -35343,7 +35400,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -35354,7 +35411,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D19758-431F-4F9A-96EB-470489DDFF2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBECEB-3E57-430B-A060-A73EF18D8024}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="86">
   <si>
     <t>Question</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>Revisit schedule, daily updates</t>
+  </si>
+  <si>
+    <t>Helped with scheduling</t>
+  </si>
+  <si>
+    <t>Complete admin bootstrap, Add necessary methods to classes and DAOs</t>
   </si>
 </sst>
 </file>
@@ -9552,9 +9558,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9698,7 +9704,7 @@
         <v>79</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14019,9 +14025,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14119,33 +14125,45 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -14154,33 +14172,45 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
@@ -14189,33 +14219,45 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
@@ -14224,33 +14266,45 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
@@ -14259,91 +14313,103 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBECEB-3E57-430B-A060-A73EF18D8024}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6968DD96-E14C-4534-A753-585DEF2E56DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="90">
   <si>
     <t>Question</t>
   </si>
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>Complete admin bootstrap, Add necessary methods to classes and DAOs</t>
+  </si>
+  <si>
+    <t>Completed admin bootstrap, added necessary methods to classes and DAOs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement 'drop bid' and 'drop section' functionality </t>
+  </si>
+  <si>
+    <t>Write test cases for 'drop bid' and 'drop section' functionality, implement 'add bid' functionality</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule, daily updates, write test cases for 'drop bid' and 'drop section' functionality, implement 'add bid' functionality</t>
   </si>
 </sst>
 </file>
@@ -14025,9 +14037,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14128,7 +14140,9 @@
       <c r="C3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -14143,7 +14157,9 @@
       <c r="C4" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
@@ -14158,7 +14174,9 @@
       <c r="C5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
@@ -14175,7 +14193,9 @@
       <c r="C6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
@@ -14190,7 +14210,9 @@
       <c r="C7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
@@ -14205,7 +14227,9 @@
       <c r="C8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -14222,7 +14246,9 @@
       <c r="C9" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="17" t="s">
+        <v>78</v>
+      </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -14237,7 +14263,9 @@
       <c r="C10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="17" t="s">
+        <v>89</v>
+      </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
@@ -14252,7 +14280,9 @@
       <c r="C11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
@@ -14269,7 +14299,9 @@
       <c r="C12" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
@@ -14284,7 +14316,9 @@
       <c r="C13" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
@@ -14299,7 +14333,9 @@
       <c r="C14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
@@ -14316,7 +14352,9 @@
       <c r="C15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
@@ -14331,7 +14369,9 @@
       <c r="C16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
@@ -14346,7 +14386,9 @@
       <c r="C17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6968DD96-E14C-4534-A753-585DEF2E56DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC96FE-1B5C-4271-870C-431421748519}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="103">
   <si>
     <t>Question</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Lim Hui Sin</t>
-  </si>
-  <si>
-    <t>Ku Seoung Lim</t>
   </si>
   <si>
     <t>Hilya Syazwani Binte Mohamed Yusoff</t>
@@ -254,9 +251,6 @@
     <t>PM Review</t>
   </si>
   <si>
-    <t>Revisit scheduling</t>
-  </si>
-  <si>
     <t>Deployed app, submitted slides and did PM Review</t>
   </si>
   <si>
@@ -269,43 +263,90 @@
     <t>Drew critical paths for the slides, attended PM Review</t>
   </si>
   <si>
-    <t>Helped with adjusting schedule</t>
-  </si>
-  <si>
     <t>Adjusting schedule, daily updates</t>
-  </si>
-  <si>
-    <t>Help with scheduling, fix admin login</t>
-  </si>
-  <si>
-    <t>Fix admin login</t>
-  </si>
-  <si>
-    <t>Fixed admin login</t>
-  </si>
-  <si>
-    <t>Helped with scheduling, fixed admin login</t>
-  </si>
-  <si>
-    <t>Revisit schedule, daily updates</t>
-  </si>
-  <si>
-    <t>Helped with scheduling</t>
-  </si>
-  <si>
-    <t>Complete admin bootstrap, Add necessary methods to classes and DAOs</t>
-  </si>
-  <si>
-    <t>Completed admin bootstrap, added necessary methods to classes and DAOs</t>
   </si>
   <si>
     <t xml:space="preserve">Implement 'drop bid' and 'drop section' functionality </t>
   </si>
   <si>
-    <t>Write test cases for 'drop bid' and 'drop section' functionality, implement 'add bid' functionality</t>
+    <t>Continue updating the schedule, daily updates, write test cases for 'drop bid' and 'drop section' functionality, implement 'add bid' functionality</t>
   </si>
   <si>
-    <t>Continue updating the schedule, daily updates, write test cases for 'drop bid' and 'drop section' functionality, implement 'add bid' functionality</t>
+    <t>Revisit scheduling with steffi</t>
+  </si>
+  <si>
+    <t>Revisit scheduling with hs</t>
+  </si>
+  <si>
+    <t>Helped with adjusting schedule with hs</t>
+  </si>
+  <si>
+    <t>Adjusting schedule with steffi, daily updates</t>
+  </si>
+  <si>
+    <t>Revisit schedule with steffi, daily updates</t>
+  </si>
+  <si>
+    <t>Helped with scheduling with hs</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule with steffi, daily updates</t>
+  </si>
+  <si>
+    <t>Fix admin login with steffi</t>
+  </si>
+  <si>
+    <t>Fixed admin login with steffi</t>
+  </si>
+  <si>
+    <t>Help with scheduling with hs, fix admin login with sky</t>
+  </si>
+  <si>
+    <t>Helped with scheduling with hs, fixed admin login with sky</t>
+  </si>
+  <si>
+    <t>Ku Seoung Lim (Sky)</t>
+  </si>
+  <si>
+    <t>Complete admin bootstrap with sky</t>
+  </si>
+  <si>
+    <t>Complete admin bootstrap with steffi</t>
+  </si>
+  <si>
+    <t>Vetted and completed admin bootstrap except logic validations with sky</t>
+  </si>
+  <si>
+    <t>Vetted and completed admin bootstrap except logic validations with steffi</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Write test cases for 'drop bid' and 'drop section' functionality, implement 'add bid' functionality, help with scheduling with hs</t>
+  </si>
+  <si>
+    <t>Added logic validation for course_completed.csv, completed validations for 'add bid' functionality except timetable clashes, created process_planbid.php and helped with scheduling with hs</t>
+  </si>
+  <si>
+    <t>Added logic validation for course_completed.csv, completed validations for 'add bid' functionality except timetable clashes, created process_planbid.php and helped with scheduling with steffi</t>
+  </si>
+  <si>
+    <t>Completed more than half of the necessary methods to classes and DAOs, Added 'round' database (update SQL script), created Round and RoundDAO classes and add 'bidding round' page for admin UI with jm</t>
+  </si>
+  <si>
+    <t>Completed more than half of the necessary methods to classes and DAOs, Added 'round' database (update SQL script), created Round and RoundDAO classes and add 'bidding round' page for admin UI with hilya</t>
+  </si>
+  <si>
+    <t>add 'round' database (update SQL script), create Round and RoundDAO classes, add 'bidding round' page for admin UI, add 'round' database (update SQL script), create Round and RoundDAO classes with hilya
+Add 'bidding round' page for admin UI</t>
+  </si>
+  <si>
+    <t>add 'round' database (update SQL script), create Round and RoundDAO classes, add 'bidding round' page for admin UI, add 'round' database (update SQL script), create Round and RoundDAO classes with jm
+Add 'bidding round' page for admin UI</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule, daily updates, write test cases for 'open / close round' admin UI functionality</t>
   </si>
 </sst>
 </file>
@@ -399,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -470,6 +511,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,9 +803,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -781,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -861,13 +908,13 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -880,13 +927,13 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -899,13 +946,13 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -920,13 +967,13 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -939,13 +986,13 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -958,13 +1005,13 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -979,13 +1026,13 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -998,13 +1045,13 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1017,18 +1064,18 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>16</v>
+      <c r="A12" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -1038,13 +1085,13 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1057,13 +1104,13 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1076,18 +1123,18 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -1097,13 +1144,13 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1116,13 +1163,13 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1135,13 +1182,13 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5103,9 +5150,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5128,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -5204,25 +5251,25 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5231,25 +5278,25 @@
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5258,25 +5305,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5287,25 +5334,25 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5314,25 +5361,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5341,25 +5388,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5370,25 +5417,25 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5397,25 +5444,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5424,54 +5471,54 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>16</v>
+      <c r="A12" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5480,25 +5527,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5507,54 +5554,54 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5563,25 +5610,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5590,25 +5637,25 @@
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9570,9 +9617,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <selection pane="topRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9595,7 +9642,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -9671,25 +9718,25 @@
         <v>7</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9698,25 +9745,25 @@
         <v>12</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9725,25 +9772,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -9754,25 +9801,25 @@
         <v>7</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9781,25 +9828,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9808,25 +9855,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9837,25 +9884,25 @@
         <v>7</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9864,25 +9911,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9891,54 +9938,54 @@
         <v>9</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>16</v>
+      <c r="A12" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9947,25 +9994,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9974,54 +10021,54 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10030,25 +10077,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10057,25 +10104,25 @@
         <v>9</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -14037,9 +14084,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14062,7 +14109,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -14138,12 +14185,14 @@
         <v>7</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="17"/>
@@ -14155,12 +14204,14 @@
         <v>12</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="20"/>
+        <v>95</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="17"/>
@@ -14172,12 +14223,14 @@
         <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="17"/>
@@ -14191,12 +14244,14 @@
         <v>7</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="17"/>
@@ -14208,12 +14263,14 @@
         <v>8</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="17"/>
@@ -14225,12 +14282,14 @@
         <v>9</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="17"/>
@@ -14244,12 +14303,14 @@
         <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="20"/>
+        <v>75</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="17"/>
@@ -14261,12 +14322,14 @@
         <v>8</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="20"/>
+        <v>77</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="17"/>
@@ -14278,31 +14341,35 @@
         <v>9</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>16</v>
+      <c r="A12" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="20"/>
+        <v>93</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="17"/>
@@ -14314,12 +14381,14 @@
         <v>8</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="17"/>
@@ -14331,12 +14400,14 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="17"/>
@@ -14344,18 +14415,20 @@
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="20"/>
+        <v>29</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="17"/>
@@ -14367,12 +14440,14 @@
         <v>8</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="20"/>
+        <v>76</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="17"/>
@@ -14384,12 +14459,14 @@
         <v>9</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="17"/>
@@ -14398,6 +14475,9 @@
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
+      <c r="E18" s="28" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -18354,9 +18434,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18379,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -18553,8 +18633,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>16</v>
+      <c r="A12" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -18589,7 +18669,7 @@
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -22581,9 +22661,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22606,7 +22686,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -22780,8 +22860,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>16</v>
+      <c r="A12" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -22816,7 +22896,7 @@
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -26808,9 +26888,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26833,7 +26913,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -27007,8 +27087,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>16</v>
+      <c r="A12" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -27043,7 +27123,7 @@
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -31035,9 +31115,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31060,7 +31140,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -31234,8 +31314,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>16</v>
+      <c r="A12" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -31270,7 +31350,7 @@
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -35262,9 +35342,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35286,7 +35366,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -35460,8 +35540,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>16</v>
+      <c r="A12" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -35496,7 +35576,7 @@
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC96FE-1B5C-4271-870C-431421748519}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6968DD96-E14C-4534-A753-585DEF2E56DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="90">
   <si>
     <t>Question</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Lim Hui Sin</t>
+  </si>
+  <si>
+    <t>Ku Seoung Lim</t>
   </si>
   <si>
     <t>Hilya Syazwani Binte Mohamed Yusoff</t>
@@ -251,6 +254,9 @@
     <t>PM Review</t>
   </si>
   <si>
+    <t>Revisit scheduling</t>
+  </si>
+  <si>
     <t>Deployed app, submitted slides and did PM Review</t>
   </si>
   <si>
@@ -263,90 +269,43 @@
     <t>Drew critical paths for the slides, attended PM Review</t>
   </si>
   <si>
+    <t>Helped with adjusting schedule</t>
+  </si>
+  <si>
     <t>Adjusting schedule, daily updates</t>
+  </si>
+  <si>
+    <t>Help with scheduling, fix admin login</t>
+  </si>
+  <si>
+    <t>Fix admin login</t>
+  </si>
+  <si>
+    <t>Fixed admin login</t>
+  </si>
+  <si>
+    <t>Helped with scheduling, fixed admin login</t>
+  </si>
+  <si>
+    <t>Revisit schedule, daily updates</t>
+  </si>
+  <si>
+    <t>Helped with scheduling</t>
+  </si>
+  <si>
+    <t>Complete admin bootstrap, Add necessary methods to classes and DAOs</t>
+  </si>
+  <si>
+    <t>Completed admin bootstrap, added necessary methods to classes and DAOs</t>
   </si>
   <si>
     <t xml:space="preserve">Implement 'drop bid' and 'drop section' functionality </t>
   </si>
   <si>
-    <t>Continue updating the schedule, daily updates, write test cases for 'drop bid' and 'drop section' functionality, implement 'add bid' functionality</t>
+    <t>Write test cases for 'drop bid' and 'drop section' functionality, implement 'add bid' functionality</t>
   </si>
   <si>
-    <t>Revisit scheduling with steffi</t>
-  </si>
-  <si>
-    <t>Revisit scheduling with hs</t>
-  </si>
-  <si>
-    <t>Helped with adjusting schedule with hs</t>
-  </si>
-  <si>
-    <t>Adjusting schedule with steffi, daily updates</t>
-  </si>
-  <si>
-    <t>Revisit schedule with steffi, daily updates</t>
-  </si>
-  <si>
-    <t>Helped with scheduling with hs</t>
-  </si>
-  <si>
-    <t>Continue updating the schedule with steffi, daily updates</t>
-  </si>
-  <si>
-    <t>Fix admin login with steffi</t>
-  </si>
-  <si>
-    <t>Fixed admin login with steffi</t>
-  </si>
-  <si>
-    <t>Help with scheduling with hs, fix admin login with sky</t>
-  </si>
-  <si>
-    <t>Helped with scheduling with hs, fixed admin login with sky</t>
-  </si>
-  <si>
-    <t>Ku Seoung Lim (Sky)</t>
-  </si>
-  <si>
-    <t>Complete admin bootstrap with sky</t>
-  </si>
-  <si>
-    <t>Complete admin bootstrap with steffi</t>
-  </si>
-  <si>
-    <t>Vetted and completed admin bootstrap except logic validations with sky</t>
-  </si>
-  <si>
-    <t>Vetted and completed admin bootstrap except logic validations with steffi</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Write test cases for 'drop bid' and 'drop section' functionality, implement 'add bid' functionality, help with scheduling with hs</t>
-  </si>
-  <si>
-    <t>Added logic validation for course_completed.csv, completed validations for 'add bid' functionality except timetable clashes, created process_planbid.php and helped with scheduling with hs</t>
-  </si>
-  <si>
-    <t>Added logic validation for course_completed.csv, completed validations for 'add bid' functionality except timetable clashes, created process_planbid.php and helped with scheduling with steffi</t>
-  </si>
-  <si>
-    <t>Completed more than half of the necessary methods to classes and DAOs, Added 'round' database (update SQL script), created Round and RoundDAO classes and add 'bidding round' page for admin UI with jm</t>
-  </si>
-  <si>
-    <t>Completed more than half of the necessary methods to classes and DAOs, Added 'round' database (update SQL script), created Round and RoundDAO classes and add 'bidding round' page for admin UI with hilya</t>
-  </si>
-  <si>
-    <t>add 'round' database (update SQL script), create Round and RoundDAO classes, add 'bidding round' page for admin UI, add 'round' database (update SQL script), create Round and RoundDAO classes with hilya
-Add 'bidding round' page for admin UI</t>
-  </si>
-  <si>
-    <t>add 'round' database (update SQL script), create Round and RoundDAO classes, add 'bidding round' page for admin UI, add 'round' database (update SQL script), create Round and RoundDAO classes with jm
-Add 'bidding round' page for admin UI</t>
-  </si>
-  <si>
-    <t>Continue updating the schedule, daily updates, write test cases for 'open / close round' admin UI functionality</t>
+    <t>Continue updating the schedule, daily updates, write test cases for 'drop bid' and 'drop section' functionality, implement 'add bid' functionality</t>
   </si>
 </sst>
 </file>
@@ -440,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -511,12 +470,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,9 +756,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -828,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -908,13 +861,13 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -927,13 +880,13 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -946,13 +899,13 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -967,13 +920,13 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -986,13 +939,13 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1005,13 +958,13 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1026,13 +979,13 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1045,13 +998,13 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,18 +1017,18 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>89</v>
+      <c r="A12" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -1085,13 +1038,13 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,13 +1057,13 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1123,18 +1076,18 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -1144,13 +1097,13 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1163,13 +1116,13 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,13 +1135,13 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5150,9 +5103,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5175,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -5251,25 +5204,25 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5278,25 +5231,25 @@
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5305,25 +5258,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -5334,25 +5287,25 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5361,25 +5314,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5388,25 +5341,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5417,25 +5370,25 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5444,25 +5397,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5471,54 +5424,54 @@
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>89</v>
+      <c r="A12" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5527,25 +5480,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5554,54 +5507,54 @@
         <v>9</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5610,25 +5563,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5637,25 +5590,25 @@
         <v>9</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9617,9 +9570,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I3" sqref="I3"/>
+      <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9642,7 +9595,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -9718,25 +9671,25 @@
         <v>7</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9745,25 +9698,25 @@
         <v>12</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="I4" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9772,25 +9725,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -9801,25 +9754,25 @@
         <v>7</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9828,25 +9781,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9855,25 +9808,25 @@
         <v>9</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -9884,25 +9837,25 @@
         <v>7</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9911,25 +9864,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9938,54 +9891,54 @@
         <v>9</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>89</v>
+      <c r="A12" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9994,25 +9947,25 @@
         <v>8</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10021,54 +9974,54 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10077,25 +10030,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10104,25 +10057,25 @@
         <v>9</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -14084,9 +14037,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14109,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -14185,14 +14138,12 @@
         <v>7</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="17"/>
@@ -14204,14 +14155,12 @@
         <v>12</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>29</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="17"/>
@@ -14223,14 +14172,12 @@
         <v>9</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="17"/>
@@ -14244,14 +14191,12 @@
         <v>7</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>99</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="17"/>
@@ -14263,14 +14208,12 @@
         <v>8</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>100</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="17"/>
@@ -14282,14 +14225,12 @@
         <v>9</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="17"/>
@@ -14303,14 +14244,12 @@
         <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>97</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="17"/>
@@ -14322,14 +14261,12 @@
         <v>8</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>102</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="17"/>
@@ -14341,35 +14278,31 @@
         <v>9</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>89</v>
+      <c r="A12" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>29</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="17"/>
@@ -14381,14 +14314,12 @@
         <v>8</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>29</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="17"/>
@@ -14400,14 +14331,12 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="17"/>
@@ -14415,20 +14344,18 @@
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>98</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="17"/>
@@ -14440,14 +14367,12 @@
         <v>8</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>101</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="17"/>
@@ -14459,14 +14384,12 @@
         <v>9</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="17"/>
@@ -14475,9 +14398,6 @@
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
-      <c r="E18" s="28" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -18434,9 +18354,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18459,7 +18379,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -18633,8 +18553,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>89</v>
+      <c r="A12" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -18669,7 +18589,7 @@
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -22661,9 +22581,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22686,7 +22606,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -22860,8 +22780,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>89</v>
+      <c r="A12" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -22896,7 +22816,7 @@
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -26888,9 +26808,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26913,7 +26833,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -27087,8 +27007,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>89</v>
+      <c r="A12" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -27123,7 +27043,7 @@
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -31115,9 +31035,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31140,7 +31060,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -31314,8 +31234,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>89</v>
+      <c r="A12" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -31350,7 +31270,7 @@
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -35342,9 +35262,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
+      <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35366,7 +35286,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -35540,8 +35460,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>89</v>
+      <c r="A12" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -35576,7 +35496,7 @@
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6968DD96-E14C-4534-A753-585DEF2E56DB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF457C3-F720-4FE6-B90B-1B76EE4AD350}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF457C3-F720-4FE6-B90B-1B76EE4AD350}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA02228-14D6-4B1F-953A-09E6841B43D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="102">
   <si>
     <t>Question</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Lim Hui Sin</t>
-  </si>
-  <si>
-    <t>Ku Seoung Lim</t>
   </si>
   <si>
     <t>Hilya Syazwani Binte Mohamed Yusoff</t>
@@ -167,12 +164,6 @@
     <t>Edit schedule, daily updates</t>
   </si>
   <si>
-    <t>Coded login page</t>
-  </si>
-  <si>
-    <t>Created SQL database, coded classes and DAOs, created bootstrap.php</t>
-  </si>
-  <si>
     <t>Continue updating the schedule, daily updates</t>
   </si>
   <si>
@@ -194,16 +185,7 @@
     <t>Team meeting, write test cases for login, add to bug metrics</t>
   </si>
   <si>
-    <t>Finished all bootstrap validations up to course_completed</t>
-  </si>
-  <si>
     <t>Team meeting, test login functionality, debugging</t>
-  </si>
-  <si>
-    <t>Created bidding results summary table for student home page, started on 'plan bid' page</t>
-  </si>
-  <si>
-    <t>Created bidding results summary table for student home page, began coding 'plan bid' page</t>
   </si>
   <si>
     <t>Team meeting, update schedule until end of project, daily updates</t>
@@ -293,12 +275,6 @@
     <t>Helped with scheduling</t>
   </si>
   <si>
-    <t>Complete admin bootstrap, Add necessary methods to classes and DAOs</t>
-  </si>
-  <si>
-    <t>Completed admin bootstrap, added necessary methods to classes and DAOs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Implement 'drop bid' and 'drop section' functionality </t>
   </si>
   <si>
@@ -306,6 +282,66 @@
   </si>
   <si>
     <t>Continue updating the schedule, daily updates, write test cases for 'drop bid' and 'drop section' functionality, implement 'add bid' functionality</t>
+  </si>
+  <si>
+    <t>Add necessary methods to classes and DAOs except UpdateEdollar() in StudentDAO class, implemented 'open / close round' functionality with hilya</t>
+  </si>
+  <si>
+    <t>Add necessary methods to classes and DAOs except UpdateEdollar() in StudentDAO class, implemented 'open / close round' functionality with jm</t>
+  </si>
+  <si>
+    <t>Ku Seoung Lim (Sky)</t>
+  </si>
+  <si>
+    <t>Added logic validations for course_completed.csv,Implement 'add bid' functionality except validations for timetable clashes, created process_placebid.php with hs</t>
+  </si>
+  <si>
+    <t>Adjusting schedule, daily updates, added logic validations for course_completed.csv,Implement 'add bid' functionality except validations for timetable clashes, created process_placebid.php with steffi</t>
+  </si>
+  <si>
+    <t>Created SQL database, coded classes and DAOs, created bootstrap.php with sky</t>
+  </si>
+  <si>
+    <t>Coded login page with jm</t>
+  </si>
+  <si>
+    <t>Coded login page with hilya</t>
+  </si>
+  <si>
+    <t>Finished all bootstrap validations up to course_completed with hs</t>
+  </si>
+  <si>
+    <t>Finished all bootstrap validations up to course_completed with jm</t>
+  </si>
+  <si>
+    <t>Created bidding results summary table for student home page, began coding 'plan bid' page with hilya</t>
+  </si>
+  <si>
+    <t>Created bidding results summary table for student home page, started on 'plan bid' page with sky</t>
+  </si>
+  <si>
+    <t>Completed admin bootstrap, added necessary methods to classes and DAOs with steffi</t>
+  </si>
+  <si>
+    <t>Completed admin bootstrap, added necessary methods to classes and DAOs with sky</t>
+  </si>
+  <si>
+    <t>Complete admin bootstrap, Add necessary methods to classes and DAOs with steffi</t>
+  </si>
+  <si>
+    <t>Complete admin bootstrap, Add necessary methods to classes and DAOs with sky</t>
+  </si>
+  <si>
+    <t>Implement 'drop bid' and 'drop section' functionality with jm</t>
+  </si>
+  <si>
+    <t>Implement 'drop bid' and 'drop section' functionality with hilya</t>
+  </si>
+  <si>
+    <t>Complete add bid functionality with sky</t>
+  </si>
+  <si>
+    <t>Complete add bid functionality with steffi</t>
   </si>
 </sst>
 </file>
@@ -399,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -423,24 +459,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -470,6 +488,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,9 +777,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -774,21 +795,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -808,8 +829,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -850,7 +871,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -860,18 +881,18 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>36</v>
+      <c r="G3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -879,18 +900,18 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>27</v>
+      <c r="G4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -898,18 +919,18 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>28</v>
+      <c r="G5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -919,18 +940,18 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -938,18 +959,18 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>30</v>
+      <c r="G7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -957,18 +978,18 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>32</v>
+      <c r="G8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -978,18 +999,18 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>30</v>
+      <c r="G9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -997,18 +1018,18 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>30</v>
+      <c r="G10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1016,19 +1037,19 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>32</v>
+      <c r="G11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -1037,18 +1058,18 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>30</v>
+      <c r="G12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1056,18 +1077,18 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>30</v>
+      <c r="G13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1075,19 +1096,19 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>32</v>
+      <c r="G14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>17</v>
+      <c r="A15" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -1096,18 +1117,18 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>30</v>
+      <c r="G15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1115,18 +1136,18 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>30</v>
+      <c r="G16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1134,14 +1155,14 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>32</v>
+      <c r="G17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5103,9 +5124,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5121,21 +5142,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5155,8 +5176,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5197,418 +5218,418 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>37</v>
+      <c r="C3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>45</v>
+      <c r="F4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>28</v>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>30</v>
+      <c r="C6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>30</v>
+      <c r="C7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>32</v>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>30</v>
+      <c r="C9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>30</v>
+      <c r="C10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>32</v>
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>30</v>
+      <c r="C12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>30</v>
+      <c r="C13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>32</v>
+      <c r="C14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>17</v>
+      <c r="A15" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>30</v>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>30</v>
+      <c r="C16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>32</v>
+      <c r="C17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -9570,9 +9591,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9588,21 +9609,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -9622,8 +9643,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9664,418 +9685,418 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>77</v>
+      <c r="C3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>79</v>
+      <c r="C4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>28</v>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>30</v>
+      <c r="C6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>30</v>
+      <c r="C7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>28</v>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>78</v>
+      <c r="C9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="C10" s="14" t="s">
         <v>45</v>
       </c>
+      <c r="D10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>28</v>
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>30</v>
+      <c r="C12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>80</v>
+      <c r="C13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>28</v>
+      <c r="C14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>17</v>
+      <c r="A15" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>30</v>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>30</v>
+      <c r="C16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>28</v>
+      <c r="C17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -14037,9 +14058,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D19" sqref="D19"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14055,21 +14076,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -14089,8 +14110,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -14131,269 +14152,329 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="C3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="C4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="C7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="C9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="C10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="C13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="C14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>17</v>
+      <c r="A15" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="C15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="C16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="C17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -18354,9 +18435,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18372,21 +18453,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -18406,8 +18487,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -18448,7 +18529,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -18461,7 +18542,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -18472,7 +18553,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -18483,7 +18564,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -18496,7 +18577,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -18507,7 +18588,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -18518,7 +18599,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -18531,7 +18612,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -18542,7 +18623,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -18554,7 +18635,7 @@
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -18566,7 +18647,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -18577,7 +18658,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -18588,8 +18669,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>17</v>
+      <c r="A15" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -18601,7 +18682,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -18612,7 +18693,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -22581,9 +22662,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22599,21 +22680,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -22633,8 +22714,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -22675,7 +22756,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -22688,7 +22769,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -22699,7 +22780,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -22710,7 +22791,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -22723,7 +22804,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -22734,7 +22815,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -22745,7 +22826,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -22758,7 +22839,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -22769,7 +22850,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -22781,7 +22862,7 @@
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -22793,7 +22874,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -22804,7 +22885,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -22815,8 +22896,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>17</v>
+      <c r="A15" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -22828,7 +22909,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -22839,7 +22920,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -26808,9 +26889,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26826,21 +26907,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -26860,8 +26941,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -26902,7 +26983,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -26915,7 +26996,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -26926,7 +27007,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -26937,7 +27018,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -26950,7 +27031,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -26961,7 +27042,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -26972,7 +27053,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -26985,7 +27066,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -26996,7 +27077,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -27008,7 +27089,7 @@
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -27020,7 +27101,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -27031,7 +27112,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -27042,8 +27123,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>17</v>
+      <c r="A15" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -27055,7 +27136,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -27066,7 +27147,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -31035,9 +31116,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31053,21 +31134,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -31087,8 +31168,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -31129,7 +31210,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -31142,7 +31223,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -31153,7 +31234,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -31164,7 +31245,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -31177,7 +31258,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -31188,7 +31269,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -31199,7 +31280,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -31212,7 +31293,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -31223,7 +31304,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -31235,7 +31316,7 @@
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -31247,7 +31328,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -31258,7 +31339,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -31269,8 +31350,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>17</v>
+      <c r="A15" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -31282,7 +31363,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -31293,7 +31374,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -35262,9 +35343,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35279,21 +35360,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="C1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -35313,8 +35394,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -35355,7 +35436,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -35368,7 +35449,7 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -35379,7 +35460,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -35390,7 +35471,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -35403,7 +35484,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -35414,7 +35495,7 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -35425,7 +35506,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -35438,7 +35519,7 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -35449,7 +35530,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -35461,7 +35542,7 @@
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -35473,7 +35554,7 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -35484,7 +35565,7 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
@@ -35495,8 +35576,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>17</v>
+      <c r="A15" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -35508,7 +35589,7 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
@@ -35519,7 +35600,7 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA02228-14D6-4B1F-953A-09E6841B43D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D464B76-F322-4AB3-BC4B-C86725DE5B9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="106">
   <si>
     <t>Question</t>
   </si>
@@ -343,6 +343,18 @@
   <si>
     <t>Complete add bid functionality with steffi</t>
   </si>
+  <si>
+    <t>Implemented 'drop bid' and 'drop section' functionality with jm</t>
+  </si>
+  <si>
+    <t>Implemented 'drop bid' and 'drop section' functionality with hilya</t>
+  </si>
+  <si>
+    <t>Write test cases for add bid functionality with hilya</t>
+  </si>
+  <si>
+    <t>Write test cases for add bid functionality with jm</t>
+  </si>
 </sst>
 </file>
 
@@ -473,11 +485,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -488,9 +503,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,21 +807,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -830,7 +842,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -871,7 +883,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -930,7 +942,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -989,7 +1001,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1048,7 +1060,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1107,7 +1119,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5142,21 +5154,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5177,7 +5189,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5218,7 +5230,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5301,7 +5313,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5384,7 +5396,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5467,7 +5479,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5550,7 +5562,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -9609,21 +9621,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -9644,7 +9656,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9685,7 +9697,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -9768,7 +9780,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -9851,7 +9863,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -9934,7 +9946,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -10017,7 +10029,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -14058,9 +14070,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:I1"/>
+      <selection pane="topRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14076,21 +14088,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -14111,7 +14123,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -14152,7 +14164,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -14170,7 +14182,9 @@
       <c r="F3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
@@ -14189,9 +14203,11 @@
         <v>29</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="14"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
@@ -14212,12 +14228,14 @@
       <c r="F5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -14235,7 +14253,9 @@
       <c r="F6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
@@ -14256,7 +14276,9 @@
       <c r="F7" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
@@ -14277,12 +14299,14 @@
       <c r="F8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -14300,7 +14324,9 @@
       <c r="F9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
     </row>
@@ -14321,7 +14347,9 @@
       <c r="F10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
@@ -14342,12 +14370,14 @@
       <c r="F11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -14365,7 +14395,9 @@
       <c r="F12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
@@ -14384,9 +14416,11 @@
         <v>29</v>
       </c>
       <c r="F13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="14"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
     </row>
@@ -14407,12 +14441,14 @@
       <c r="F14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -14430,7 +14466,9 @@
       <c r="F15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
@@ -14451,7 +14489,9 @@
       <c r="F16" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
@@ -14472,7 +14512,9 @@
       <c r="F17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
@@ -18453,21 +18495,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -18488,7 +18530,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -18529,7 +18571,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -18564,7 +18606,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -18599,7 +18641,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -18634,7 +18676,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -18669,7 +18711,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -22680,21 +22722,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -22715,7 +22757,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -22756,7 +22798,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -22791,7 +22833,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -22826,7 +22868,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -22861,7 +22903,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -22896,7 +22938,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -26907,21 +26949,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -26942,7 +26984,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -26983,7 +27025,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -27018,7 +27060,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -27053,7 +27095,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -27088,7 +27130,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -27123,7 +27165,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -31134,21 +31176,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -31169,7 +31211,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -31210,7 +31252,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -31245,7 +31287,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -31280,7 +31322,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -31315,7 +31357,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -31350,7 +31392,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -35360,21 +35402,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -35395,7 +35437,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -35436,7 +35478,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -35471,7 +35513,7 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -35506,7 +35548,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -35541,7 +35583,7 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -35576,7 +35618,7 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D464B76-F322-4AB3-BC4B-C86725DE5B9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4C5F22-EB49-465A-AE7C-98C8E91665D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="113">
   <si>
     <t>Question</t>
   </si>
@@ -338,22 +338,43 @@
     <t>Implement 'drop bid' and 'drop section' functionality with hilya</t>
   </si>
   <si>
-    <t>Complete add bid functionality with sky</t>
-  </si>
-  <si>
-    <t>Complete add bid functionality with steffi</t>
-  </si>
-  <si>
     <t>Implemented 'drop bid' and 'drop section' functionality with jm</t>
   </si>
   <si>
     <t>Implemented 'drop bid' and 'drop section' functionality with hilya</t>
   </si>
   <si>
-    <t>Write test cases for add bid functionality with hilya</t>
+    <t>Write test cases for add bid functionality with jm</t>
   </si>
   <si>
-    <t>Write test cases for add bid functionality with jm</t>
+    <t>Continue updating the schedule, daily updates, debugging 'drop bid' and 'drop section' functionality</t>
+  </si>
+  <si>
+    <t>Completed 'add bid' functionality with sky</t>
+  </si>
+  <si>
+    <t>Complete 'add bid' functionality with sky</t>
+  </si>
+  <si>
+    <t>Write test cases for 'add bid' functionality with hilya</t>
+  </si>
+  <si>
+    <t>Complete 'add bid' functionality with steffi</t>
+  </si>
+  <si>
+    <t>Completed 'add bid' functionality with steffi</t>
+  </si>
+  <si>
+    <t>Wrote test cases for 'add bid' functionality and tested 'add bid' functionality with hilya</t>
+  </si>
+  <si>
+    <t>Write test cases for bootstrap with sky</t>
+  </si>
+  <si>
+    <t>Write test cases for bootstrap with jm</t>
+  </si>
+  <si>
+    <t>Wrote test cases for 'add bid' functionality and tested 'add bid' functionality with jm</t>
   </si>
 </sst>
 </file>
@@ -14070,9 +14091,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G19" sqref="G19"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14185,7 +14206,9 @@
       <c r="G3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14206,9 +14229,11 @@
         <v>29</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14231,7 +14256,9 @@
       <c r="G5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -14254,9 +14281,11 @@
         <v>29</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14277,9 +14306,11 @@
         <v>99</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14302,7 +14333,9 @@
       <c r="G8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14327,7 +14360,9 @@
       <c r="G9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14350,7 +14385,9 @@
       <c r="G10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14373,7 +14410,9 @@
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14398,7 +14437,9 @@
       <c r="G12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14419,9 +14460,11 @@
         <v>29</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14444,7 +14487,9 @@
       <c r="G14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14467,9 +14512,11 @@
         <v>29</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H15" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14490,9 +14537,11 @@
         <v>98</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14515,7 +14564,9 @@
       <c r="G17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4C5F22-EB49-465A-AE7C-98C8E91665D7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE771931-C8CA-4EDF-8034-5E6A409181D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="117">
   <si>
     <t>Question</t>
   </si>
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t>Wrote test cases for 'add bid' functionality and tested 'add bid' functionality with jm</t>
+  </si>
+  <si>
+    <t>Wrote some test cases for bootstrap with sky</t>
+  </si>
+  <si>
+    <t>Wrote some test cases for bootstrap with jm</t>
+  </si>
+  <si>
+    <t>Adjusting schedule, daily updates, did not manage to debug 'drop bid' and 'drop section' functionality</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule, daily updates,debugging 'drop bid' and 'drop section' functionality</t>
   </si>
 </sst>
 </file>
@@ -14091,9 +14103,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14209,7 +14221,9 @@
       <c r="H3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
@@ -14234,7 +14248,9 @@
       <c r="H4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -14259,7 +14275,9 @@
       <c r="H5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -14286,7 +14304,9 @@
       <c r="H6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="11" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
@@ -14311,7 +14331,9 @@
       <c r="H7" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
@@ -14336,7 +14358,9 @@
       <c r="H8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -14363,7 +14387,9 @@
       <c r="H9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
@@ -14388,7 +14414,9 @@
       <c r="H10" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
@@ -14413,7 +14441,9 @@
       <c r="H11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -14440,7 +14470,9 @@
       <c r="H12" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
@@ -14465,7 +14497,9 @@
       <c r="H13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
@@ -14490,7 +14524,9 @@
       <c r="H14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -14517,7 +14553,9 @@
       <c r="H15" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
@@ -14542,7 +14580,9 @@
       <c r="H16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
@@ -14567,7 +14607,9 @@
       <c r="H17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE771931-C8CA-4EDF-8034-5E6A409181D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACE3571-B8A0-46FE-B37C-C986DE36249F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 5" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="120">
   <si>
     <t>Question</t>
   </si>
@@ -386,7 +386,16 @@
     <t>Adjusting schedule, daily updates, did not manage to debug 'drop bid' and 'drop section' functionality</t>
   </si>
   <si>
-    <t>Continue updating the schedule, daily updates,debugging 'drop bid' and 'drop section' functionality</t>
+    <t>Complete the remaining validations for bootstrap</t>
+  </si>
+  <si>
+    <t>Write test cases for bootstrap</t>
+  </si>
+  <si>
+    <t>Testing and debugging bootstrap with hs</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule, daily updates, testing and debugging bootstrap with sky</t>
   </si>
 </sst>
 </file>
@@ -14103,9 +14112,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14415,7 +14424,7 @@
         <v>103</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18570,9 +18579,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12:A14"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18670,33 +18679,45 @@
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="63.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
@@ -18705,33 +18726,45 @@
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
@@ -18740,33 +18773,45 @@
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -18775,33 +18820,45 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -18810,91 +18867,103 @@
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="4"/>
     </row>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACE3571-B8A0-46FE-B37C-C986DE36249F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEA68B1-D8BA-4D34-939A-D83C0608BF34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="123">
   <si>
     <t>Question</t>
   </si>
@@ -386,16 +386,25 @@
     <t>Adjusting schedule, daily updates, did not manage to debug 'drop bid' and 'drop section' functionality</t>
   </si>
   <si>
-    <t>Complete the remaining validations for bootstrap</t>
-  </si>
-  <si>
     <t>Write test cases for bootstrap</t>
   </si>
   <si>
-    <t>Testing and debugging bootstrap with hs</t>
+    <t>Completed remaining validations for boostrap with jm</t>
   </si>
   <si>
-    <t>Continue updating the schedule, daily updates, testing and debugging bootstrap with sky</t>
+    <t>Complete the remaining validations for bootstrap with jm</t>
+  </si>
+  <si>
+    <t>Test and debug bootstrap with hs</t>
+  </si>
+  <si>
+    <t>Wrote test cases for bootstrap</t>
+  </si>
+  <si>
+    <t>Continue updating the schedule, daily updates, test and debug bootstrap with steffi, write test cases for 'drop bid' and 'drop section' functionality, test and debug 'drop bid' and 'drop section' functionality with sky</t>
+  </si>
+  <si>
+    <t>Test and debug 'drop bid' and 'drop section' functionality with hs</t>
   </si>
 </sst>
 </file>
@@ -18579,9 +18588,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18682,7 +18691,9 @@
       <c r="C3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -18695,9 +18706,11 @@
         <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="14"/>
+        <v>118</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -18712,7 +18725,9 @@
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -18729,7 +18744,9 @@
       <c r="C6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -18742,9 +18759,11 @@
         <v>8</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -18759,7 +18778,9 @@
       <c r="C8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -18776,7 +18797,9 @@
       <c r="C9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -18789,9 +18812,11 @@
         <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>121</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -18806,7 +18831,9 @@
       <c r="C11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -18823,7 +18850,9 @@
       <c r="C12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -18836,9 +18865,11 @@
         <v>8</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -18853,7 +18884,9 @@
       <c r="C14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -18870,7 +18903,9 @@
       <c r="C15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -18885,7 +18920,9 @@
       <c r="C16" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -18900,7 +18937,9 @@
       <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>

--- a/metrics/Du.xlsx
+++ b/metrics/Du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HuiSin\Documents\GitHub\project-g1t8\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEA68B1-D8BA-4D34-939A-D83C0608BF34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB5E119-F2FB-4D19-9B41-A64B70BB330E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="131">
   <si>
     <t>Question</t>
   </si>
@@ -405,6 +405,30 @@
   </si>
   <si>
     <t>Test and debug 'drop bid' and 'drop section' functionality with hs</t>
+  </si>
+  <si>
+    <t>Work on 'drop section' functionality</t>
+  </si>
+  <si>
+    <t>Adjusting schedule, daily updates, tested and debugged bootstrap with steffi, wrote test cases for 'drop bid' functionality with sky, tested and debugged 'drop bid' functionality with sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue updating the schedule, daily updates, work on slides, deploy app on AWS </t>
+  </si>
+  <si>
+    <t>Wrote test cases for 'drop bid' with hs, tested and debugged 'drop bid' functionality with hs</t>
+  </si>
+  <si>
+    <t>Tested and debugged bootstrap with hs</t>
+  </si>
+  <si>
+    <t>Debug bootstrap and run through the whole test cases with hilya</t>
+  </si>
+  <si>
+    <t>Worked on 'drop section' functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helped with scheduling </t>
   </si>
 </sst>
 </file>
@@ -18588,9 +18612,9 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D20" sqref="D20"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18694,7 +18718,9 @@
       <c r="D3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="11"/>
@@ -18711,7 +18737,9 @@
       <c r="D4" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="11"/>
@@ -18728,7 +18756,9 @@
       <c r="D5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="11"/>
@@ -18747,7 +18777,9 @@
       <c r="D6" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="11"/>
@@ -18764,7 +18796,9 @@
       <c r="D7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="11"/>
@@ -18781,7 +18815,9 @@
       <c r="D8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="11"/>
@@ -18800,7 +18836,9 @@
       <c r="D9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="11"/>
@@ -18817,7 +18855,9 @@
       <c r="D10" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="11"/>
@@ -18834,7 +18874,9 @@
       <c r="D11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="11"/>
@@ -18853,7 +18895,9 @@
       <c r="D12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>126</v>
+      </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="11"/>
@@ -18870,7 +18914,9 @@
       <c r="D13" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="11"/>
@@ -18887,7 +18933,9 @@
       <c r="D14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="11"/>
@@ -18906,7 +18954,9 @@
       <c r="D15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="11"/>
@@ -18921,9 +18971,11 @@
         <v>29</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="14"/>
+        <v>123</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="11"/>
@@ -18940,7 +18992,9 @@
       <c r="D17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="14"/>
+      <c r="E17" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="11"/>
